--- a/Spain Primera Division RFEF Group 1/Spain Primera Division RFEF Group 1.xlsx
+++ b/Spain Primera Division RFEF Group 1/Spain Primera Division RFEF Group 1.xlsx
@@ -106,10 +106,10 @@
     <t>Celta de Vigo B</t>
   </si>
   <si>
-    <t>Linares Deportivo</t>
+    <t>Pontevedra</t>
   </si>
   <si>
-    <t>Pontevedra</t>
+    <t>Linares Deportivo</t>
   </si>
   <si>
     <t>Real Madrid B</t>
@@ -136,10 +136,10 @@
     <t>Alcorcon</t>
   </si>
   <si>
-    <t>Algeciras CF</t>
+    <t>Unionistas de Salamanca CF</t>
   </si>
   <si>
-    <t>Unionistas de Salamanca CF</t>
+    <t>Algeciras CF</t>
   </si>
   <si>
     <t>Cultural Leonesa</t>
@@ -157,10 +157,10 @@
     <t>Racing Ferrol</t>
   </si>
   <si>
-    <t>CD Badajoz</t>
+    <t>Cordoba</t>
   </si>
   <si>
-    <t>Cordoba</t>
+    <t>CD Badajoz</t>
   </si>
   <si>
     <t>Osasuna B</t>
@@ -169,13 +169,13 @@
     <t>Gimnastic</t>
   </si>
   <si>
-    <t>Real Sociedad B</t>
-  </si>
-  <si>
     <t>Real Unin</t>
   </si>
   <si>
     <t>Lugo</t>
+  </si>
+  <si>
+    <t>Real Sociedad B</t>
   </si>
   <si>
     <t>SD Logrones</t>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5373643</v>
+        <v>5376711</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -786,40 +786,40 @@
         <v>64</v>
       </c>
       <c r="K3">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
         <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -828,19 +828,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.675</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5376711</v>
+        <v>5373643</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -863,10 +863,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -875,61 +875,61 @@
         <v>64</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
         <v>3.2</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
         <v>3.25</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2.15</v>
+      </c>
+      <c r="S4">
+        <v>1.675</v>
+      </c>
+      <c r="T4">
+        <v>2.25</v>
+      </c>
+      <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
+        <v>2.025</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>1.25</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.675</v>
+      </c>
+      <c r="AB4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>1.9</v>
-      </c>
-      <c r="S4">
-        <v>1.9</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>2.8</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.925</v>
-      </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -952,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1649,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5373646</v>
+        <v>5376704</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1667,34 +1667,34 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="P13">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.85</v>
@@ -1703,34 +1703,34 @@
         <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1738,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5376704</v>
+        <v>5373646</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1756,34 +1756,34 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
+        <v>3.5</v>
+      </c>
+      <c r="N14">
+        <v>1.8</v>
+      </c>
+      <c r="O14">
         <v>3.2</v>
       </c>
-      <c r="N14">
-        <v>2.15</v>
-      </c>
-      <c r="O14">
-        <v>2.7</v>
-      </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1792,34 +1792,34 @@
         <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2272,7 +2272,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5610866</v>
+        <v>5376707</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2287,73 +2287,73 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>1.55</v>
+      </c>
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
+        <v>5.5</v>
+      </c>
+      <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>1.725</v>
+      </c>
+      <c r="S20">
+        <v>1.975</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>1.775</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>4.5</v>
       </c>
-      <c r="N20">
-        <v>1.85</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>3.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>2.3</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2361,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5376707</v>
+        <v>5610866</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2376,73 +2376,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>4.5</v>
+      </c>
+      <c r="N21">
+        <v>1.85</v>
+      </c>
+      <c r="O21">
+        <v>3.3</v>
+      </c>
+      <c r="P21">
         <v>3.8</v>
       </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>1.55</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
-      <c r="P21">
-        <v>5.5</v>
-      </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5376698</v>
+        <v>5376703</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2640,76 +2640,76 @@
         <v>44947.625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N24">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2717,7 +2717,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5376703</v>
+        <v>5376698</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2729,76 +2729,76 @@
         <v>44947.625</v>
       </c>
       <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25">
+        <v>3.3</v>
+      </c>
+      <c r="L25">
         <v>3.25</v>
       </c>
-      <c r="L25">
-        <v>3.1</v>
-      </c>
       <c r="M25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N25">
+        <v>4.2</v>
+      </c>
+      <c r="O25">
         <v>3.5</v>
       </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
       <c r="P25">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
+        <v>1.75</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.825</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
-      <c r="V25">
-        <v>1.8</v>
-      </c>
       <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>2.5</v>
       </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2999,7 +2999,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3174,10 +3174,10 @@
         <v>44948.58333333334</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
         <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -3708,7 +3708,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3886,10 +3886,10 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4064,7 +4064,7 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4245,7 +4245,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4497,7 +4497,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6209345</v>
+        <v>5376687</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4509,76 +4509,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M45">
+        <v>2.15</v>
+      </c>
+      <c r="N45">
+        <v>3.1</v>
+      </c>
+      <c r="O45">
+        <v>2.9</v>
+      </c>
+      <c r="P45">
         <v>2.25</v>
       </c>
-      <c r="N45">
-        <v>2.4</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
-      <c r="P45">
-        <v>2.75</v>
-      </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4675,7 +4675,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5376687</v>
+        <v>6209345</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4687,76 +4687,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N47">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4868,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5373662</v>
+        <v>5373658</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4954,49 +4954,49 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P50">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
         <v>1.85</v>
@@ -5005,19 +5005,19 @@
         <v>1.95</v>
       </c>
       <c r="W50">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB50">
         <v>-1</v>
@@ -5031,7 +5031,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5373658</v>
+        <v>5373662</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5043,49 +5043,49 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U51">
         <v>1.85</v>
@@ -5094,19 +5094,19 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X51">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -5221,7 +5221,7 @@
         <v>44968.625</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>42</v>
@@ -5310,7 +5310,7 @@
         <v>44968.625</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5577,7 +5577,7 @@
         <v>44969.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5666,10 +5666,10 @@
         <v>44969.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5847,7 +5847,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6111,7 +6111,7 @@
         <v>44975.625</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
@@ -6200,7 +6200,7 @@
         <v>44975.625</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6381,7 +6381,7 @@
         <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6737,7 +6737,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6826,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -7179,7 +7179,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7268,7 +7268,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7360,7 +7360,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7446,7 +7446,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>45</v>
@@ -7624,7 +7624,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7891,7 +7891,7 @@
         <v>44989.625</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8072,7 +8072,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8161,7 +8161,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8250,7 +8250,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8428,7 +8428,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8502,7 +8502,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5373681</v>
+        <v>5373680</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8514,40 +8514,40 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R90">
         <v>1.85</v>
@@ -8556,34 +8556,34 @@
         <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8591,7 +8591,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5373680</v>
+        <v>5373681</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8603,40 +8603,40 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K91">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M91">
+        <v>3.5</v>
+      </c>
+      <c r="N91">
+        <v>1.615</v>
+      </c>
+      <c r="O91">
+        <v>3.2</v>
+      </c>
+      <c r="P91">
         <v>5.5</v>
       </c>
-      <c r="N91">
-        <v>1.45</v>
-      </c>
-      <c r="O91">
-        <v>4.333</v>
-      </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
         <v>1.85</v>
@@ -8645,34 +8645,34 @@
         <v>1.95</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>1.725</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8781,10 +8781,10 @@
         <v>44996.625</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
         <v>45</v>
@@ -9137,7 +9137,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>44</v>
@@ -9229,7 +9229,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9318,7 +9318,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9582,10 +9582,10 @@
         <v>45003.5</v>
       </c>
       <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
         <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9760,7 +9760,7 @@
         <v>45003.625</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>35</v>
@@ -10208,7 +10208,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10282,7 +10282,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5376660</v>
+        <v>5376658</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10294,76 +10294,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K110">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M110">
         <v>2.5</v>
       </c>
       <c r="N110">
+        <v>3.2</v>
+      </c>
+      <c r="O110">
         <v>2.8</v>
       </c>
-      <c r="O110">
-        <v>3.3</v>
-      </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q110">
         <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="V110">
-        <v>1.85</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z110">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10371,7 +10371,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5376658</v>
+        <v>5376660</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10383,76 +10383,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L111">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M111">
         <v>2.5</v>
       </c>
       <c r="N111">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
         <v>1.85</v>
       </c>
-      <c r="V111">
-        <v>1.95</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA111">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10561,10 +10561,10 @@
         <v>45010.625</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10650,10 +10650,10 @@
         <v>45011.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10816,7 +10816,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5376653</v>
+        <v>5373695</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10828,76 +10828,76 @@
         <v>45011.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10905,7 +10905,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5373695</v>
+        <v>5376653</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10917,76 +10917,76 @@
         <v>45011.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K117">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
         <v>3</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O117">
         <v>3</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="S117">
-        <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>2.025</v>
-      </c>
-      <c r="V117">
-        <v>1.775</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11009,7 +11009,7 @@
         <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11350,7 +11350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5373703</v>
+        <v>5373699</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11362,13 +11362,13 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11377,43 +11377,43 @@
         <v>63</v>
       </c>
       <c r="K122">
+        <v>1.65</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>4.75</v>
+      </c>
+      <c r="N122">
+        <v>1.8</v>
+      </c>
+      <c r="O122">
         <v>3.3</v>
       </c>
-      <c r="L122">
-        <v>2.9</v>
-      </c>
-      <c r="M122">
-        <v>2.15</v>
-      </c>
-      <c r="N122">
-        <v>3.4</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
       <c r="P122">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11422,13 +11422,13 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11439,7 +11439,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5373699</v>
+        <v>5373702</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11451,40 +11451,40 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>63</v>
       </c>
       <c r="K123">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R123">
         <v>1.85</v>
@@ -11496,13 +11496,13 @@
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11511,16 +11511,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11528,7 +11528,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5373702</v>
+        <v>5373703</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11540,49 +11540,49 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>63</v>
       </c>
       <c r="K124">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
         <v>1.85</v>
@@ -11591,7 +11591,7 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>0.45</v>
+        <v>2.4</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11600,16 +11600,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11718,7 +11718,7 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11810,7 +11810,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12074,10 +12074,10 @@
         <v>45018.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12341,10 +12341,10 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12611,7 +12611,7 @@
         <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>45025.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -13142,7 +13142,7 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13308,7 +13308,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5610881</v>
+        <v>5375072</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13320,76 +13320,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O144">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y144">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13397,7 +13397,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5375072</v>
+        <v>5375073</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13409,76 +13409,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K145">
         <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O145">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.725</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.85</v>
-      </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13486,7 +13486,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5375067</v>
+        <v>5610881</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13498,76 +13498,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L146">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13575,7 +13575,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5375073</v>
+        <v>5375067</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13587,13 +13587,13 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13602,43 +13602,43 @@
         <v>63</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
+        <v>3.1</v>
+      </c>
+      <c r="M147">
         <v>3.2</v>
       </c>
-      <c r="M147">
-        <v>2.8</v>
-      </c>
       <c r="N147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13647,16 +13647,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13676,7 +13676,7 @@
         <v>45032.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13765,7 +13765,7 @@
         <v>45032.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -14032,7 +14032,7 @@
         <v>45038.5</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -14124,7 +14124,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G154" t="s">
         <v>44</v>
@@ -14480,7 +14480,7 @@
         <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14569,7 +14569,7 @@
         <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14658,7 +14658,7 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>45045.5</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
         <v>34</v>
@@ -15088,7 +15088,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5377694</v>
+        <v>5377691</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15100,49 +15100,49 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
+        <v>2.8</v>
+      </c>
+      <c r="M164">
         <v>3</v>
       </c>
-      <c r="M164">
-        <v>3.25</v>
-      </c>
       <c r="N164">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U164">
         <v>1.8</v>
@@ -15151,19 +15151,19 @@
         <v>2</v>
       </c>
       <c r="W164">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
         <v>0.8</v>
@@ -15177,7 +15177,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5377691</v>
+        <v>5377694</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15189,49 +15189,49 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
       <c r="J165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K165">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M165">
+        <v>3.25</v>
+      </c>
+      <c r="N165">
+        <v>2.45</v>
+      </c>
+      <c r="O165">
         <v>3</v>
       </c>
-      <c r="N165">
-        <v>2.2</v>
-      </c>
-      <c r="O165">
-        <v>2.8</v>
-      </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
         <v>1.8</v>
@@ -15240,19 +15240,19 @@
         <v>2</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>0.8</v>
@@ -15266,7 +15266,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5638906</v>
+        <v>5377696</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15278,76 +15278,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K166">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N166">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P166">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y166">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15355,7 +15355,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5377696</v>
+        <v>5638906</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15367,76 +15367,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N167">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15456,7 +15456,7 @@
         <v>45046.5</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15545,10 +15545,10 @@
         <v>45046.625</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15634,7 +15634,7 @@
         <v>45046.625</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15726,7 +15726,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15904,7 +15904,7 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15978,7 +15978,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5639231</v>
+        <v>5379015</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15990,58 +15990,58 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>63</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L174">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N174">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P174">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16050,16 +16050,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16156,7 +16156,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5379015</v>
+        <v>5639231</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16168,58 +16168,58 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>63</v>
       </c>
       <c r="K176">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M176">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q176">
         <v>0</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16228,16 +16228,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16438,7 +16438,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16524,7 +16524,7 @@
         <v>45053.54166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
         <v>46</v>
@@ -16791,10 +16791,10 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16868,7 +16868,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5380396</v>
+        <v>5640028</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16880,58 +16880,58 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>63</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="L184">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
+        <v>1.533</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
+        <v>5.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.875</v>
+      </c>
+      <c r="T184">
         <v>2.75</v>
       </c>
-      <c r="O184">
-        <v>3</v>
-      </c>
-      <c r="P184">
-        <v>2.4</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>2.05</v>
-      </c>
-      <c r="S184">
-        <v>1.75</v>
-      </c>
-      <c r="T184">
-        <v>2.25</v>
-      </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>1.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16940,13 +16940,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16957,7 +16957,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5640028</v>
+        <v>5380396</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16969,58 +16969,58 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>63</v>
       </c>
       <c r="K185">
+        <v>2.6</v>
+      </c>
+      <c r="L185">
+        <v>2.9</v>
+      </c>
+      <c r="M185">
+        <v>2.6</v>
+      </c>
+      <c r="N185">
+        <v>2.75</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
+        <v>2.4</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
         <v>1.75</v>
       </c>
-      <c r="L185">
-        <v>3.3</v>
-      </c>
-      <c r="M185">
-        <v>4.2</v>
-      </c>
-      <c r="N185">
-        <v>1.533</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
-      <c r="P185">
-        <v>5.5</v>
-      </c>
-      <c r="Q185">
-        <v>-1</v>
-      </c>
-      <c r="R185">
-        <v>1.925</v>
-      </c>
-      <c r="S185">
-        <v>1.875</v>
-      </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -17029,13 +17029,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17058,7 +17058,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17239,7 +17239,7 @@
         <v>46</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17414,7 +17414,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17773,7 +17773,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
         <v>42</v>
@@ -18040,7 +18040,7 @@
         <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18218,7 +18218,7 @@
         <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18304,10 +18304,10 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18571,7 +18571,7 @@
         <v>45073.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>36</v>
@@ -18660,7 +18660,7 @@
         <v>45073.60416666666</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>38</v>
@@ -18737,7 +18737,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6947681</v>
+        <v>6947971</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18749,76 +18749,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K205">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L205">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M205">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N205">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O205">
+        <v>3.1</v>
+      </c>
+      <c r="P205">
         <v>4</v>
       </c>
-      <c r="P205">
-        <v>6.5</v>
-      </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18826,7 +18826,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6947971</v>
+        <v>6947681</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18838,76 +18838,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K206">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L206">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N206">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19016,7 +19016,7 @@
         <v>45164.6875</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
         <v>56</v>
@@ -19093,7 +19093,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7110332</v>
+        <v>7110337</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19108,55 +19108,55 @@
         <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>63</v>
       </c>
       <c r="K209">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M209">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N209">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19165,16 +19165,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19182,7 +19182,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7110337</v>
+        <v>7110331</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19197,7 +19197,7 @@
         <v>52</v>
       </c>
       <c r="G210" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19209,43 +19209,43 @@
         <v>63</v>
       </c>
       <c r="K210">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N210">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
         <v>2</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19254,13 +19254,13 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19271,7 +19271,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7110331</v>
+        <v>7110332</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19286,55 +19286,55 @@
         <v>53</v>
       </c>
       <c r="G211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>63</v>
       </c>
       <c r="K211">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
         <v>6.5</v>
       </c>
       <c r="N211">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
         <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19343,16 +19343,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AA211">
         <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19728,7 +19728,7 @@
         <v>45171.64583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19817,7 +19817,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G217" t="s">
         <v>38</v>
@@ -20176,7 +20176,7 @@
         <v>58</v>
       </c>
       <c r="G221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20443,7 +20443,7 @@
         <v>61</v>
       </c>
       <c r="G224" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20517,7 +20517,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6949641</v>
+        <v>6949639</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20529,76 +20529,76 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F225" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>65</v>
       </c>
       <c r="K225">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L225">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N225">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P225">
+        <v>3.8</v>
+      </c>
+      <c r="Q225">
+        <v>-0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.95</v>
+      </c>
+      <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
         <v>2.05</v>
       </c>
-      <c r="Q225">
-        <v>0.5</v>
-      </c>
-      <c r="R225">
-        <v>1.725</v>
-      </c>
-      <c r="S225">
-        <v>1.975</v>
-      </c>
-      <c r="T225">
-        <v>2</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20606,7 +20606,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6949639</v>
+        <v>6949641</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20618,76 +20618,76 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G226" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>65</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M226">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
+        <v>1.725</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2</v>
+      </c>
+      <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
         <v>1.95</v>
       </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>2.05</v>
-      </c>
-      <c r="V226">
-        <v>1.75</v>
-      </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20885,10 +20885,10 @@
         <v>45179.29166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20977,7 +20977,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21241,7 +21241,7 @@
         <v>45179.60416666666</v>
       </c>
       <c r="F233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G233" t="s">
         <v>43</v>
@@ -21511,7 +21511,7 @@
         <v>57</v>
       </c>
       <c r="G236" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21597,7 +21597,7 @@
         <v>45185.6875</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
         <v>38</v>
@@ -22045,7 +22045,7 @@
         <v>56</v>
       </c>
       <c r="G242" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22220,7 +22220,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G244" t="s">
         <v>55</v>
@@ -22398,10 +22398,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G246" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22665,7 +22665,7 @@
         <v>45193.29166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G249" t="s">
         <v>61</v>
@@ -22757,7 +22757,7 @@
         <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23377,7 +23377,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G257" t="s">
         <v>50</v>
@@ -23647,7 +23647,7 @@
         <v>59</v>
       </c>
       <c r="G260" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23911,10 +23911,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -24359,7 +24359,7 @@
         <v>54</v>
       </c>
       <c r="G268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G269" t="s">
         <v>62</v>
@@ -24804,7 +24804,7 @@
         <v>49</v>
       </c>
       <c r="G273" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24890,7 +24890,7 @@
         <v>45207.625</v>
       </c>
       <c r="F274" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G274" t="s">
         <v>58</v>
@@ -24967,7 +24967,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6947710</v>
+        <v>6947707</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24979,16 +24979,16 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G275" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H275">
         <v>3</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
         <v>63</v>
@@ -24997,31 +24997,31 @@
         <v>2.5</v>
       </c>
       <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>2.6</v>
+      </c>
+      <c r="N275">
         <v>2.8</v>
       </c>
-      <c r="M275">
-        <v>2.8</v>
-      </c>
-      <c r="N275">
-        <v>2.75</v>
-      </c>
       <c r="O275">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P275">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S275">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T275">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U275">
         <v>1.775</v>
@@ -25030,7 +25030,7 @@
         <v>2.025</v>
       </c>
       <c r="W275">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -25039,7 +25039,7 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA275">
         <v>-1</v>
@@ -25056,7 +25056,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6947707</v>
+        <v>6947710</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25068,16 +25068,16 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H276">
         <v>3</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
         <v>63</v>
@@ -25086,31 +25086,31 @@
         <v>2.5</v>
       </c>
       <c r="L276">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M276">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N276">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O276">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P276">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U276">
         <v>1.775</v>
@@ -25119,7 +25119,7 @@
         <v>2.025</v>
       </c>
       <c r="W276">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25128,7 +25128,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25160,7 +25160,7 @@
         <v>29</v>
       </c>
       <c r="G277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -25602,7 +25602,7 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G282" t="s">
         <v>54</v>
@@ -25679,7 +25679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6947711</v>
+        <v>6949656</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25691,76 +25691,76 @@
         <v>45214.625</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K283">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L283">
         <v>3</v>
       </c>
       <c r="M283">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N283">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O283">
         <v>2.9</v>
       </c>
       <c r="P283">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
+        <v>1.975</v>
+      </c>
+      <c r="T283">
         <v>1.75</v>
       </c>
-      <c r="T283">
-        <v>2</v>
-      </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X283">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA283">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25768,7 +25768,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6949656</v>
+        <v>6947711</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25780,76 +25780,76 @@
         <v>45214.625</v>
       </c>
       <c r="F284" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G284" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K284">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L284">
         <v>3</v>
       </c>
       <c r="M284">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N284">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O284">
         <v>2.9</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q284">
         <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S284">
+        <v>1.75</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
         <v>1.975</v>
       </c>
-      <c r="T284">
-        <v>1.75</v>
-      </c>
-      <c r="U284">
-        <v>1.85</v>
-      </c>
       <c r="V284">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W284">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25869,7 +25869,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G285" t="s">
         <v>62</v>
@@ -26403,7 +26403,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G291" t="s">
         <v>55</v>
@@ -26495,7 +26495,7 @@
         <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -26584,7 +26584,7 @@
         <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -26851,7 +26851,7 @@
         <v>57</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H296">
         <v>4</v>
@@ -27026,10 +27026,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G298" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -27560,7 +27560,7 @@
         <v>45228.66666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G304" t="s">
         <v>43</v>
@@ -28094,7 +28094,7 @@
         <v>45235.5</v>
       </c>
       <c r="F310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G310" t="s">
         <v>38</v>
@@ -28186,7 +28186,7 @@
         <v>60</v>
       </c>
       <c r="G311" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28361,10 +28361,10 @@
         <v>45235.625</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G313" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28542,7 +28542,7 @@
         <v>59</v>
       </c>
       <c r="G315" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H315">
         <v>3</v>
@@ -28717,7 +28717,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G317" t="s">
         <v>57</v>
@@ -28987,7 +28987,7 @@
         <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H320">
         <v>2</v>
@@ -29162,7 +29162,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G322" t="s">
         <v>42</v>
@@ -29518,7 +29518,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G326" t="s">
         <v>50</v>
@@ -29607,7 +29607,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G327" t="s">
         <v>55</v>
@@ -29773,7 +29773,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6949676</v>
+        <v>6947726</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29785,10 +29785,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G329" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -29800,40 +29800,40 @@
         <v>64</v>
       </c>
       <c r="K329">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L329">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M329">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N329">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O329">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P329">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q329">
         <v>0.25</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S329">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T329">
         <v>2</v>
       </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
         <v>-1</v>
@@ -29842,13 +29842,13 @@
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z329">
         <v>-1</v>
       </c>
       <c r="AA329">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB329">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6947726</v>
+        <v>6949676</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29963,10 +29963,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G331" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -29978,40 +29978,40 @@
         <v>64</v>
       </c>
       <c r="K331">
+        <v>3.4</v>
+      </c>
+      <c r="L331">
+        <v>3.25</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
         <v>3</v>
       </c>
-      <c r="L331">
-        <v>2.875</v>
-      </c>
-      <c r="M331">
-        <v>2.4</v>
-      </c>
-      <c r="N331">
-        <v>3.1</v>
-      </c>
       <c r="O331">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q331">
         <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T331">
         <v>2</v>
       </c>
       <c r="U331">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V331">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -30020,13 +30020,13 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB331">
         <v>0</v>
@@ -30055,7 +30055,7 @@
         <v>60</v>
       </c>
       <c r="G332" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30497,7 +30497,7 @@
         <v>45255.625</v>
       </c>
       <c r="F337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G337" t="s">
         <v>57</v>
@@ -30663,7 +30663,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6947736</v>
+        <v>6947993</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30675,40 +30675,40 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G339" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H339">
         <v>0</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
         <v>64</v>
       </c>
       <c r="K339">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L339">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M339">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N339">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O339">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P339">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R339">
         <v>1.8</v>
@@ -30717,13 +30717,13 @@
         <v>2</v>
       </c>
       <c r="T339">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U339">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
@@ -30732,7 +30732,7 @@
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="Z339">
         <v>-1</v>
@@ -30741,10 +30741,10 @@
         <v>1</v>
       </c>
       <c r="AB339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30752,7 +30752,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6947993</v>
+        <v>6947735</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30764,40 +30764,40 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F340" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K340">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L340">
+        <v>3.1</v>
+      </c>
+      <c r="M340">
+        <v>3</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340">
         <v>3.3</v>
       </c>
-      <c r="M340">
-        <v>3.5</v>
-      </c>
-      <c r="N340">
-        <v>1.45</v>
-      </c>
-      <c r="O340">
-        <v>4</v>
-      </c>
       <c r="P340">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q340">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R340">
         <v>1.8</v>
@@ -30806,34 +30806,34 @@
         <v>2</v>
       </c>
       <c r="T340">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V340">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y340">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA340">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB340">
         <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30841,7 +30841,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6947735</v>
+        <v>6947736</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30853,40 +30853,40 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G341" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K341">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L341">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M341">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N341">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O341">
         <v>3.3</v>
       </c>
       <c r="P341">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q341">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
         <v>1.8</v>
@@ -30898,31 +30898,31 @@
         <v>2</v>
       </c>
       <c r="U341">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V341">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W341">
         <v>-1</v>
       </c>
       <c r="X341">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z341">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC341">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30945,7 +30945,7 @@
         <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -31212,7 +31212,7 @@
         <v>56</v>
       </c>
       <c r="G345" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31479,7 +31479,7 @@
         <v>42</v>
       </c>
       <c r="G348" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31832,7 +31832,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F352" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
         <v>50</v>
@@ -32010,7 +32010,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F354" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G354" t="s">
         <v>55</v>
@@ -32102,7 +32102,7 @@
         <v>44</v>
       </c>
       <c r="G355" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -32191,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="G356" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32366,7 +32366,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F358" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G358" t="s">
         <v>49</v>
@@ -32722,7 +32722,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F362" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G362" t="s">
         <v>58</v>
@@ -32992,7 +32992,7 @@
         <v>59</v>
       </c>
       <c r="G365" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -33167,7 +33167,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G367" t="s">
         <v>61</v>
@@ -33434,10 +33434,10 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F370" t="s">
+        <v>53</v>
+      </c>
+      <c r="G370" t="s">
         <v>51</v>
-      </c>
-      <c r="G370" t="s">
-        <v>52</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -33879,7 +33879,7 @@
         <v>45293.625</v>
       </c>
       <c r="F375" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G375" t="s">
         <v>29</v>
@@ -33956,7 +33956,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6949695</v>
+        <v>6949520</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33968,58 +33968,58 @@
         <v>45294.625</v>
       </c>
       <c r="F376" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G376" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
         <v>63</v>
       </c>
       <c r="K376">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L376">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M376">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N376">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O376">
         <v>3.4</v>
       </c>
       <c r="P376">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q376">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T376">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V376">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W376">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -34028,13 +34028,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA376">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34045,7 +34045,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6949520</v>
+        <v>6949695</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34057,73 +34057,73 @@
         <v>45294.625</v>
       </c>
       <c r="F377" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G377" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J377" t="s">
         <v>63</v>
       </c>
       <c r="K377">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="L377">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N377">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O377">
         <v>3.4</v>
       </c>
       <c r="P377">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q377">
+        <v>-0.75</v>
+      </c>
+      <c r="R377">
+        <v>1.9</v>
+      </c>
+      <c r="S377">
+        <v>1.9</v>
+      </c>
+      <c r="T377">
+        <v>2</v>
+      </c>
+      <c r="U377">
+        <v>1.9</v>
+      </c>
+      <c r="V377">
+        <v>1.9</v>
+      </c>
+      <c r="W377">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>-1</v>
+      </c>
+      <c r="Z377">
+        <v>0.45</v>
+      </c>
+      <c r="AA377">
         <v>-0.5</v>
       </c>
-      <c r="R377">
-        <v>1.825</v>
-      </c>
-      <c r="S377">
-        <v>1.975</v>
-      </c>
-      <c r="T377">
-        <v>2.25</v>
-      </c>
-      <c r="U377">
-        <v>2</v>
-      </c>
-      <c r="V377">
-        <v>1.8</v>
-      </c>
-      <c r="W377">
-        <v>0.833</v>
-      </c>
-      <c r="X377">
-        <v>-1</v>
-      </c>
-      <c r="Y377">
-        <v>-1</v>
-      </c>
-      <c r="Z377">
-        <v>0.825</v>
-      </c>
-      <c r="AA377">
-        <v>-1</v>
-      </c>
       <c r="AB377">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34327,7 +34327,7 @@
         <v>58</v>
       </c>
       <c r="G380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -34401,7 +34401,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6947754</v>
+        <v>7648126</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34413,13 +34413,13 @@
         <v>45295.625</v>
       </c>
       <c r="F381" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G381" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -34428,43 +34428,43 @@
         <v>63</v>
       </c>
       <c r="K381">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="L381">
+        <v>3.1</v>
+      </c>
+      <c r="M381">
+        <v>2.9</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381">
+        <v>3.1</v>
+      </c>
+      <c r="P381">
         <v>3.6</v>
       </c>
-      <c r="M381">
-        <v>4.5</v>
-      </c>
-      <c r="N381">
-        <v>1.65</v>
-      </c>
-      <c r="O381">
-        <v>3.75</v>
-      </c>
-      <c r="P381">
-        <v>4.5</v>
-      </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
         <v>1.8</v>
       </c>
-      <c r="S381">
-        <v>2</v>
-      </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U381">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V381">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W381">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34473,13 +34473,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA381">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -34579,7 +34579,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7648126</v>
+        <v>6947754</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34591,13 +34591,13 @@
         <v>45295.625</v>
       </c>
       <c r="F383" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G383" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H383">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383">
         <v>1</v>
@@ -34606,58 +34606,58 @@
         <v>63</v>
       </c>
       <c r="K383">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L383">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M383">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N383">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O383">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P383">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q383">
+        <v>-0.75</v>
+      </c>
+      <c r="R383">
+        <v>1.8</v>
+      </c>
+      <c r="S383">
+        <v>2</v>
+      </c>
+      <c r="T383">
+        <v>2.25</v>
+      </c>
+      <c r="U383">
+        <v>1.975</v>
+      </c>
+      <c r="V383">
+        <v>1.725</v>
+      </c>
+      <c r="W383">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X383">
+        <v>-1</v>
+      </c>
+      <c r="Y383">
+        <v>-1</v>
+      </c>
+      <c r="Z383">
+        <v>0.4</v>
+      </c>
+      <c r="AA383">
         <v>-0.5</v>
       </c>
-      <c r="R383">
-        <v>2</v>
-      </c>
-      <c r="S383">
-        <v>1.8</v>
-      </c>
-      <c r="T383">
-        <v>2</v>
-      </c>
-      <c r="U383">
-        <v>2</v>
-      </c>
-      <c r="V383">
-        <v>1.8</v>
-      </c>
-      <c r="W383">
-        <v>1</v>
-      </c>
-      <c r="X383">
-        <v>-1</v>
-      </c>
-      <c r="Y383">
-        <v>-1</v>
-      </c>
-      <c r="Z383">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>-1</v>
-      </c>
       <c r="AB383">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC383">
         <v>-1</v>
@@ -34950,7 +34950,7 @@
         <v>62</v>
       </c>
       <c r="G387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H387">
         <v>1</v>
@@ -35036,7 +35036,7 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F388" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G388" t="s">
         <v>43</v>
@@ -35128,7 +35128,7 @@
         <v>44</v>
       </c>
       <c r="G389" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H389">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>45305.66666666666</v>
       </c>
       <c r="F394" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G394" t="s">
         <v>49</v>
@@ -35929,7 +35929,7 @@
         <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -36015,7 +36015,7 @@
         <v>45312.33333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G399" t="s">
         <v>57</v>
@@ -36107,7 +36107,7 @@
         <v>58</v>
       </c>
       <c r="G400" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H400">
         <v>2</v>
@@ -36285,7 +36285,7 @@
         <v>56</v>
       </c>
       <c r="G402" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -36641,7 +36641,7 @@
         <v>62</v>
       </c>
       <c r="G406" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H406">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>45318.625</v>
       </c>
       <c r="F409" t="s">
+        <v>52</v>
+      </c>
+      <c r="G409" t="s">
         <v>53</v>
-      </c>
-      <c r="G409" t="s">
-        <v>51</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -37083,7 +37083,7 @@
         <v>45319.33333333334</v>
       </c>
       <c r="F411" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G411" t="s">
         <v>59</v>
@@ -37617,10 +37617,10 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F417" t="s">
+        <v>51</v>
+      </c>
+      <c r="G417" t="s">
         <v>52</v>
-      </c>
-      <c r="G417" t="s">
-        <v>53</v>
       </c>
       <c r="H417">
         <v>0</v>
@@ -37887,7 +37887,7 @@
         <v>42</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H420">
         <v>1</v>
@@ -37973,7 +37973,7 @@
         <v>45326.5</v>
       </c>
       <c r="F421" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G421" t="s">
         <v>50</v>
@@ -38139,7 +38139,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6949527</v>
+        <v>6949706</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38151,76 +38151,76 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F423" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G423" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K423">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L423">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M423">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N423">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O423">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P423">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q423">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R423">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S423">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T423">
         <v>2</v>
       </c>
       <c r="U423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V423">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA423">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38228,7 +38228,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6949706</v>
+        <v>6949527</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38240,76 +38240,76 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F424" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G424" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
         <v>1</v>
       </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
       <c r="J424" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K424">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L424">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M424">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N424">
+        <v>2.8</v>
+      </c>
+      <c r="O424">
+        <v>2.8</v>
+      </c>
+      <c r="P424">
+        <v>2.5</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+      <c r="R424">
+        <v>2.05</v>
+      </c>
+      <c r="S424">
+        <v>1.75</v>
+      </c>
+      <c r="T424">
+        <v>2</v>
+      </c>
+      <c r="U424">
+        <v>1.95</v>
+      </c>
+      <c r="V424">
         <v>1.85</v>
       </c>
-      <c r="O424">
-        <v>3.1</v>
-      </c>
-      <c r="P424">
-        <v>4</v>
-      </c>
-      <c r="Q424">
-        <v>-0.5</v>
-      </c>
-      <c r="R424">
-        <v>1.9</v>
-      </c>
-      <c r="S424">
-        <v>1.9</v>
-      </c>
-      <c r="T424">
-        <v>2</v>
-      </c>
-      <c r="U424">
-        <v>1.975</v>
-      </c>
-      <c r="V424">
-        <v>1.825</v>
-      </c>
       <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
+        <v>1.5</v>
+      </c>
+      <c r="Z424">
+        <v>-1</v>
+      </c>
+      <c r="AA424">
+        <v>0.75</v>
+      </c>
+      <c r="AB424">
+        <v>-1</v>
+      </c>
+      <c r="AC424">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
-      <c r="Z424">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA424">
-        <v>-1</v>
-      </c>
-      <c r="AB424">
-        <v>-1</v>
-      </c>
-      <c r="AC424">
-        <v>0.825</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38421,7 +38421,7 @@
         <v>55</v>
       </c>
       <c r="G426" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -38510,7 +38510,7 @@
         <v>50</v>
       </c>
       <c r="G427" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H427">
         <v>2</v>
@@ -38955,7 +38955,7 @@
         <v>43</v>
       </c>
       <c r="G432" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H432">
         <v>1</v>
@@ -39130,7 +39130,7 @@
         <v>45333.625</v>
       </c>
       <c r="F434" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G434" t="s">
         <v>49</v>
@@ -39234,31 +39234,31 @@
         <v>3.6</v>
       </c>
       <c r="N435">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O435">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P435">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q435">
         <v>-0.5</v>
       </c>
       <c r="R435">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S435">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T435">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U435">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V435">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W435">
         <v>0</v>
@@ -39293,7 +39293,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F436" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G436" t="s">
         <v>60</v>
@@ -39308,31 +39308,31 @@
         <v>4.2</v>
       </c>
       <c r="N436">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O436">
         <v>3</v>
       </c>
       <c r="P436">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q436">
         <v>-0.5</v>
       </c>
       <c r="R436">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S436">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T436">
         <v>2</v>
       </c>
       <c r="U436">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V436">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W436">
         <v>0</v>
@@ -39382,31 +39382,31 @@
         <v>3.25</v>
       </c>
       <c r="N437">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O437">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P437">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q437">
         <v>-0.25</v>
       </c>
       <c r="R437">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S437">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T437">
         <v>2.25</v>
       </c>
       <c r="U437">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V437">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W437">
         <v>0</v>
@@ -39444,7 +39444,7 @@
         <v>61</v>
       </c>
       <c r="G438" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K438">
         <v>2.75</v>
@@ -39468,10 +39468,10 @@
         <v>0</v>
       </c>
       <c r="R438">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S438">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T438">
         <v>1.75</v>
@@ -39515,7 +39515,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G439" t="s">
         <v>29</v>
@@ -39589,7 +39589,7 @@
         <v>45340.5</v>
       </c>
       <c r="F440" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G440" t="s">
         <v>44</v>
@@ -39616,19 +39616,19 @@
         <v>-0.25</v>
       </c>
       <c r="R440">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S440">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T440">
         <v>2</v>
       </c>
       <c r="U440">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V440">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W440">
         <v>0</v>
@@ -39752,22 +39752,22 @@
         <v>2.25</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O442">
         <v>2.75</v>
       </c>
       <c r="P442">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S442">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T442">
         <v>1.75</v>
@@ -39799,7 +39799,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6949716</v>
+        <v>6947786</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39811,46 +39811,46 @@
         <v>45340.625</v>
       </c>
       <c r="F443" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G443" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K443">
-        <v>1.3</v>
+        <v>1.675</v>
       </c>
       <c r="L443">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M443">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N443">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O443">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P443">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q443">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R443">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S443">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T443">
         <v>2.25</v>
       </c>
       <c r="U443">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V443">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W443">
         <v>0</v>
@@ -39873,7 +39873,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6947786</v>
+        <v>6949716</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39885,46 +39885,46 @@
         <v>45340.625</v>
       </c>
       <c r="F444" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K444">
-        <v>1.675</v>
+        <v>1.3</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M444">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N444">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O444">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P444">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R444">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S444">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T444">
         <v>2.25</v>
       </c>
       <c r="U444">
+        <v>1.825</v>
+      </c>
+      <c r="V444">
         <v>1.975</v>
-      </c>
-      <c r="V444">
-        <v>1.825</v>
       </c>
       <c r="W444">
         <v>0</v>

--- a/Spain Primera Division RFEF Group 1/Spain Primera Division RFEF Group 1.xlsx
+++ b/Spain Primera Division RFEF Group 1/Spain Primera Division RFEF Group 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Celta de Vigo B</t>
   </si>
   <si>
-    <t>Pontevedra</t>
+    <t>Linares Deportivo</t>
   </si>
   <si>
-    <t>Linares Deportivo</t>
+    <t>Pontevedra</t>
   </si>
   <si>
     <t>Real Madrid B</t>
@@ -136,10 +136,10 @@
     <t>Alcorcon</t>
   </si>
   <si>
-    <t>Unionistas de Salamanca CF</t>
+    <t>Algeciras CF</t>
   </si>
   <si>
-    <t>Algeciras CF</t>
+    <t>Unionistas de Salamanca CF</t>
   </si>
   <si>
     <t>Cultural Leonesa</t>
@@ -157,10 +157,10 @@
     <t>Racing Ferrol</t>
   </si>
   <si>
-    <t>Cordoba</t>
+    <t>CD Badajoz</t>
   </si>
   <si>
-    <t>CD Badajoz</t>
+    <t>Cordoba</t>
   </si>
   <si>
     <t>Osasuna B</t>
@@ -169,13 +169,13 @@
     <t>Gimnastic</t>
   </si>
   <si>
+    <t>Real Sociedad B</t>
+  </si>
+  <si>
     <t>Real Unin</t>
   </si>
   <si>
     <t>Lugo</t>
-  </si>
-  <si>
-    <t>Real Sociedad B</t>
   </si>
   <si>
     <t>SD Logrones</t>
@@ -573,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC444"/>
+  <dimension ref="A1:AC440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5376711</v>
+        <v>5373643</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -786,61 +786,61 @@
         <v>64</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
         <v>3.2</v>
       </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
         <v>3.25</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2.15</v>
+      </c>
+      <c r="S3">
+        <v>1.675</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>1.25</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>0.675</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.9</v>
-      </c>
-      <c r="S3">
-        <v>1.9</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.8</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB3">
-        <v>0.925</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5373643</v>
+        <v>5376711</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -863,10 +863,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -875,40 +875,40 @@
         <v>64</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
         <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -917,19 +917,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.675</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -952,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1649,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5376704</v>
+        <v>5373646</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1667,34 +1667,34 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
         <v>3.2</v>
       </c>
-      <c r="N13">
-        <v>2.15</v>
-      </c>
-      <c r="O13">
-        <v>2.7</v>
-      </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.85</v>
@@ -1703,34 +1703,34 @@
         <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1738,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5373646</v>
+        <v>5376704</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1756,34 +1756,34 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1792,34 +1792,34 @@
         <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X14">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2272,7 +2272,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5376707</v>
+        <v>5610866</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2287,73 +2287,73 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>4.5</v>
+      </c>
+      <c r="N20">
+        <v>1.85</v>
+      </c>
+      <c r="O20">
+        <v>3.3</v>
+      </c>
+      <c r="P20">
         <v>3.8</v>
       </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <v>1.55</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>5.5</v>
-      </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2361,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5610866</v>
+        <v>5376707</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2376,73 +2376,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>1.55</v>
+      </c>
+      <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
+        <v>5.5</v>
+      </c>
+      <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.725</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
+        <v>1.775</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>4.5</v>
       </c>
-      <c r="N21">
-        <v>1.85</v>
-      </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>3.8</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.9</v>
-      </c>
-      <c r="S21">
-        <v>1.9</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>2.3</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5376703</v>
+        <v>5376698</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2640,76 +2640,76 @@
         <v>44947.625</v>
       </c>
       <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24">
+        <v>3.3</v>
+      </c>
+      <c r="L24">
         <v>3.25</v>
       </c>
-      <c r="L24">
-        <v>3.1</v>
-      </c>
       <c r="M24">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N24">
+        <v>4.2</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
+        <v>1.75</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
         <v>1.975</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.5</v>
       </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2717,7 +2717,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5376698</v>
+        <v>5376703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2729,76 +2729,76 @@
         <v>44947.625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2999,7 +2999,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3174,10 +3174,10 @@
         <v>44948.58333333334</v>
       </c>
       <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
         <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -3708,7 +3708,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3886,10 +3886,10 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4064,7 +4064,7 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4245,7 +4245,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4497,7 +4497,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5376687</v>
+        <v>6209345</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4509,76 +4509,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N45">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4675,7 +4675,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6209345</v>
+        <v>5376687</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4687,76 +4687,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
+        <v>2.15</v>
+      </c>
+      <c r="N47">
+        <v>3.1</v>
+      </c>
+      <c r="O47">
+        <v>2.9</v>
+      </c>
+      <c r="P47">
         <v>2.25</v>
       </c>
-      <c r="N47">
-        <v>2.4</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>2.75</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4868,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5373658</v>
+        <v>5373662</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4954,49 +4954,49 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O50">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>1.85</v>
@@ -5005,19 +5005,19 @@
         <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X50">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
@@ -5031,7 +5031,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5373662</v>
+        <v>5373658</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5043,49 +5043,49 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U51">
         <v>1.85</v>
@@ -5094,19 +5094,19 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -5221,7 +5221,7 @@
         <v>44968.625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>42</v>
@@ -5310,7 +5310,7 @@
         <v>44968.625</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5577,7 +5577,7 @@
         <v>44969.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5666,10 +5666,10 @@
         <v>44969.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5847,7 +5847,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6111,7 +6111,7 @@
         <v>44975.625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
@@ -6200,7 +6200,7 @@
         <v>44975.625</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6381,7 +6381,7 @@
         <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6737,7 +6737,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6826,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -7167,7 +7167,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5373673</v>
+        <v>5376673</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7179,76 +7179,76 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K75">
+        <v>1.615</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>4.75</v>
+      </c>
+      <c r="N75">
+        <v>1.615</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
+        <v>4.5</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.775</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
         <v>2.5</v>
       </c>
-      <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>3.3</v>
-      </c>
-      <c r="O75">
-        <v>2.9</v>
-      </c>
-      <c r="P75">
-        <v>2.1</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.95</v>
-      </c>
-      <c r="S75">
-        <v>1.85</v>
-      </c>
-      <c r="T75">
-        <v>2</v>
-      </c>
       <c r="U75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X75">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7256,7 +7256,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5376673</v>
+        <v>5376675</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7268,10 +7268,10 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7283,43 +7283,43 @@
         <v>63</v>
       </c>
       <c r="K76">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
+        <v>4.333</v>
+      </c>
+      <c r="N76">
+        <v>1.7</v>
+      </c>
+      <c r="O76">
+        <v>3.2</v>
+      </c>
+      <c r="P76">
         <v>4.75</v>
-      </c>
-      <c r="N76">
-        <v>1.615</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>4.5</v>
       </c>
       <c r="Q76">
         <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7328,16 +7328,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7345,7 +7345,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5376675</v>
+        <v>5376671</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7357,76 +7357,76 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K77">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
+        <v>1.775</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
         <v>1.8</v>
       </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7434,7 +7434,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5376671</v>
+        <v>5373673</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7449,73 +7449,73 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
         <v>3</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O78">
         <v>2.9</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>1.775</v>
+      </c>
+      <c r="V78">
         <v>2.025</v>
       </c>
-      <c r="S78">
-        <v>1.775</v>
-      </c>
-      <c r="T78">
-        <v>2</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7624,7 +7624,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7891,7 +7891,7 @@
         <v>44989.625</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8072,7 +8072,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8161,7 +8161,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8250,7 +8250,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8428,7 +8428,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8502,7 +8502,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5373680</v>
+        <v>5373681</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8514,40 +8514,40 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M90">
+        <v>3.5</v>
+      </c>
+      <c r="N90">
+        <v>1.615</v>
+      </c>
+      <c r="O90">
+        <v>3.2</v>
+      </c>
+      <c r="P90">
         <v>5.5</v>
       </c>
-      <c r="N90">
-        <v>1.45</v>
-      </c>
-      <c r="O90">
-        <v>4.333</v>
-      </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
         <v>1.85</v>
@@ -8556,34 +8556,34 @@
         <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U90">
+        <v>1.725</v>
+      </c>
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8591,7 +8591,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5373681</v>
+        <v>5373680</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8603,40 +8603,40 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
         <v>1.85</v>
@@ -8645,34 +8645,34 @@
         <v>1.95</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z91">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8781,10 +8781,10 @@
         <v>44996.625</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G96" t="s">
         <v>45</v>
@@ -9137,7 +9137,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>44</v>
@@ -9229,7 +9229,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9318,7 +9318,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9582,10 +9582,10 @@
         <v>45003.5</v>
       </c>
       <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
         <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9760,7 +9760,7 @@
         <v>45003.625</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
         <v>35</v>
@@ -10208,7 +10208,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10383,10 +10383,10 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10561,10 +10561,10 @@
         <v>45010.625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10650,10 +10650,10 @@
         <v>45011.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -11009,7 +11009,7 @@
         <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11350,7 +11350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5373699</v>
+        <v>5373703</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11362,13 +11362,13 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11377,43 +11377,43 @@
         <v>63</v>
       </c>
       <c r="K122">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
+        <v>2.9</v>
+      </c>
+      <c r="M122">
+        <v>2.15</v>
+      </c>
+      <c r="N122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>4.75</v>
-      </c>
-      <c r="N122">
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
         <v>1.8</v>
       </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3.8</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.975</v>
-      </c>
-      <c r="V122">
-        <v>1.825</v>
-      </c>
       <c r="W122">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11422,13 +11422,13 @@
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11439,7 +11439,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5373702</v>
+        <v>5373699</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11451,40 +11451,40 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>63</v>
       </c>
       <c r="K123">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
         <v>1.85</v>
@@ -11496,13 +11496,13 @@
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11511,16 +11511,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11528,7 +11528,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5373703</v>
+        <v>5373702</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11540,49 +11540,49 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>63</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.85</v>
@@ -11591,7 +11591,7 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>2.4</v>
+        <v>0.45</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11600,16 +11600,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11718,7 +11718,7 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11810,7 +11810,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12074,10 +12074,10 @@
         <v>45018.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12341,10 +12341,10 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12611,7 +12611,7 @@
         <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>45025.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -13142,7 +13142,7 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13308,7 +13308,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5375072</v>
+        <v>5610881</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13320,76 +13320,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K144">
+        <v>2.75</v>
+      </c>
+      <c r="L144">
+        <v>2.875</v>
+      </c>
+      <c r="M144">
+        <v>2.5</v>
+      </c>
+      <c r="N144">
+        <v>2.6</v>
+      </c>
+      <c r="O144">
+        <v>2.9</v>
+      </c>
+      <c r="P144">
+        <v>2.6</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>2.25</v>
       </c>
-      <c r="L144">
-        <v>3</v>
-      </c>
-      <c r="M144">
-        <v>3</v>
-      </c>
-      <c r="N144">
-        <v>2.05</v>
-      </c>
-      <c r="O144">
-        <v>3</v>
-      </c>
-      <c r="P144">
-        <v>3.4</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13397,7 +13397,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5375073</v>
+        <v>5375072</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13409,76 +13409,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K145">
         <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O145">
+        <v>3</v>
+      </c>
+      <c r="P145">
         <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>3.25</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13486,7 +13486,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5610881</v>
+        <v>5375067</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13498,76 +13498,76 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K146">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="V146">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC146">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13575,7 +13575,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5375067</v>
+        <v>5375073</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13587,13 +13587,13 @@
         <v>45032.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13602,43 +13602,43 @@
         <v>63</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13647,16 +13647,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13676,7 +13676,7 @@
         <v>45032.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13765,7 +13765,7 @@
         <v>45032.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -14032,7 +14032,7 @@
         <v>45038.5</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -14124,7 +14124,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G154" t="s">
         <v>44</v>
@@ -14480,7 +14480,7 @@
         <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14569,7 +14569,7 @@
         <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14658,7 +14658,7 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>45045.5</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
         <v>34</v>
@@ -15088,7 +15088,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5377691</v>
+        <v>5377694</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15100,49 +15100,49 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M164">
+        <v>3.25</v>
+      </c>
+      <c r="N164">
+        <v>2.45</v>
+      </c>
+      <c r="O164">
         <v>3</v>
       </c>
-      <c r="N164">
-        <v>2.2</v>
-      </c>
-      <c r="O164">
-        <v>2.8</v>
-      </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
         <v>1.8</v>
@@ -15151,19 +15151,19 @@
         <v>2</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>0.8</v>
@@ -15177,7 +15177,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5377694</v>
+        <v>5377691</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15189,49 +15189,49 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L165">
+        <v>2.8</v>
+      </c>
+      <c r="M165">
         <v>3</v>
       </c>
-      <c r="M165">
-        <v>3.25</v>
-      </c>
       <c r="N165">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P165">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U165">
         <v>1.8</v>
@@ -15240,19 +15240,19 @@
         <v>2</v>
       </c>
       <c r="W165">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>0.8</v>
@@ -15266,7 +15266,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5377696</v>
+        <v>5638906</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15278,76 +15278,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J166" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O166">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15355,7 +15355,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5638906</v>
+        <v>5377696</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15367,76 +15367,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K167">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M167">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P167">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y167">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15456,7 +15456,7 @@
         <v>45046.5</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15545,10 +15545,10 @@
         <v>45046.625</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15634,7 +15634,7 @@
         <v>45046.625</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15726,7 +15726,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15904,7 +15904,7 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15978,7 +15978,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5379015</v>
+        <v>5379022</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15990,76 +15990,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K174">
-        <v>2.35</v>
+        <v>1.952</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
         <v>1.8</v>
       </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
         <v>0.8</v>
       </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16067,7 +16067,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5379022</v>
+        <v>5379015</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16079,76 +16079,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K175">
-        <v>1.952</v>
+        <v>2.35</v>
       </c>
       <c r="L175">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N175">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P175">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
         <v>1.8</v>
       </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>1.825</v>
-      </c>
-      <c r="V175">
-        <v>1.975</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X175">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.8</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16171,7 +16171,7 @@
         <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>4</v>
@@ -16438,7 +16438,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16524,7 +16524,7 @@
         <v>45053.54166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
         <v>46</v>
@@ -16791,10 +16791,10 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16969,7 +16969,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17058,7 +17058,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17239,7 +17239,7 @@
         <v>46</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17414,7 +17414,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17669,7 +17669,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5640953</v>
+        <v>5381469</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17681,64 +17681,64 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K193">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="N193">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P193">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y193">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
         <v>0</v>
@@ -17750,7 +17750,7 @@
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17758,7 +17758,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5381469</v>
+        <v>5381468</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17770,76 +17770,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K194">
-        <v>2.45</v>
+        <v>1.952</v>
       </c>
       <c r="L194">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X194">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17847,7 +17847,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5381468</v>
+        <v>5640953</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17859,76 +17859,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K195">
-        <v>1.952</v>
+        <v>6.5</v>
       </c>
       <c r="L195">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
+        <v>1.444</v>
+      </c>
+      <c r="N195">
+        <v>5.5</v>
+      </c>
+      <c r="O195">
         <v>3.6</v>
       </c>
-      <c r="N195">
-        <v>2.15</v>
-      </c>
-      <c r="O195">
-        <v>3</v>
-      </c>
       <c r="P195">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.9</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.9</v>
       </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.75</v>
-      </c>
-      <c r="V195">
-        <v>2.05</v>
-      </c>
       <c r="W195">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>-0</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
-      <c r="AC195">
-        <v>1.05</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17936,7 +17936,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5381473</v>
+        <v>5381472</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17948,10 +17948,10 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17963,34 +17963,34 @@
         <v>63</v>
       </c>
       <c r="K196">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N196">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O196">
         <v>3</v>
       </c>
       <c r="P196">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
         <v>1.85</v>
@@ -17999,7 +17999,7 @@
         <v>1.95</v>
       </c>
       <c r="W196">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -18008,16 +18008,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18025,7 +18025,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5381472</v>
+        <v>5381473</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18037,10 +18037,10 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18052,34 +18052,34 @@
         <v>63</v>
       </c>
       <c r="K197">
+        <v>1.95</v>
+      </c>
+      <c r="L197">
         <v>3.2</v>
       </c>
-      <c r="L197">
-        <v>3.1</v>
-      </c>
       <c r="M197">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O197">
         <v>3</v>
       </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
         <v>1.8</v>
       </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U197">
         <v>1.85</v>
@@ -18088,7 +18088,7 @@
         <v>1.95</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18097,16 +18097,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18203,7 +18203,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5381466</v>
+        <v>5381464</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18215,13 +18215,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18230,43 +18230,43 @@
         <v>63</v>
       </c>
       <c r="K199">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N199">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>0.55</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18275,16 +18275,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18292,7 +18292,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5381464</v>
+        <v>5381466</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18304,13 +18304,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -18319,43 +18319,43 @@
         <v>63</v>
       </c>
       <c r="K200">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L200">
         <v>3.75</v>
       </c>
       <c r="M200">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="N200">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
-        <v>0.6499999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18364,16 +18364,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18571,7 +18571,7 @@
         <v>45073.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>36</v>
@@ -18660,7 +18660,7 @@
         <v>45073.60416666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>38</v>
@@ -19016,7 +19016,7 @@
         <v>45164.6875</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
         <v>56</v>
@@ -19093,7 +19093,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7110337</v>
+        <v>7110332</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19108,55 +19108,55 @@
         <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>63</v>
       </c>
       <c r="K209">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M209">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N209">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19165,16 +19165,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19182,7 +19182,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7110331</v>
+        <v>7110337</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19197,7 +19197,7 @@
         <v>52</v>
       </c>
       <c r="G210" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19209,43 +19209,43 @@
         <v>63</v>
       </c>
       <c r="K210">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N210">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
         <v>2</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19254,13 +19254,13 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19271,7 +19271,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7110332</v>
+        <v>7110331</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19286,55 +19286,55 @@
         <v>53</v>
       </c>
       <c r="G211" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>63</v>
       </c>
       <c r="K211">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
         <v>6.5</v>
       </c>
       <c r="N211">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q211">
         <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19343,16 +19343,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
       <c r="AA211">
         <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19728,7 +19728,7 @@
         <v>45171.64583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19817,7 +19817,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G217" t="s">
         <v>38</v>
@@ -20176,7 +20176,7 @@
         <v>58</v>
       </c>
       <c r="G221" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20443,7 +20443,7 @@
         <v>61</v>
       </c>
       <c r="G224" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20517,7 +20517,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6949639</v>
+        <v>6949641</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20529,76 +20529,76 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G225" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>65</v>
       </c>
       <c r="K225">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O225">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
+        <v>1.725</v>
+      </c>
+      <c r="S225">
+        <v>1.975</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
+        <v>1.85</v>
+      </c>
+      <c r="V225">
         <v>1.95</v>
       </c>
-      <c r="S225">
-        <v>1.85</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>2.05</v>
-      </c>
-      <c r="V225">
-        <v>1.75</v>
-      </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20606,7 +20606,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6949641</v>
+        <v>6949639</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20618,76 +20618,76 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>65</v>
       </c>
       <c r="K226">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L226">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N226">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
+        <v>3.8</v>
+      </c>
+      <c r="Q226">
+        <v>-0.5</v>
+      </c>
+      <c r="R226">
+        <v>1.95</v>
+      </c>
+      <c r="S226">
+        <v>1.85</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
         <v>2.05</v>
       </c>
-      <c r="Q226">
-        <v>0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.725</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2</v>
-      </c>
-      <c r="U226">
-        <v>1.85</v>
-      </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20885,10 +20885,10 @@
         <v>45179.29166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20977,7 +20977,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21241,7 +21241,7 @@
         <v>45179.60416666666</v>
       </c>
       <c r="F233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G233" t="s">
         <v>43</v>
@@ -21511,7 +21511,7 @@
         <v>57</v>
       </c>
       <c r="G236" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21597,7 +21597,7 @@
         <v>45185.6875</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
         <v>38</v>
@@ -22045,7 +22045,7 @@
         <v>56</v>
       </c>
       <c r="G242" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22220,7 +22220,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G244" t="s">
         <v>55</v>
@@ -22398,10 +22398,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F246" t="s">
+        <v>51</v>
+      </c>
+      <c r="G246" t="s">
         <v>53</v>
-      </c>
-      <c r="G246" t="s">
-        <v>52</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22665,7 +22665,7 @@
         <v>45193.29166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G249" t="s">
         <v>61</v>
@@ -22757,7 +22757,7 @@
         <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23377,7 +23377,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G257" t="s">
         <v>50</v>
@@ -23543,7 +23543,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6947701</v>
+        <v>7275484</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23555,76 +23555,76 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G259" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K259">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L259">
         <v>3</v>
       </c>
       <c r="M259">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N259">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O259">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P259">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q259">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S259">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T259">
         <v>2</v>
       </c>
       <c r="U259">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W259">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB259">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23632,7 +23632,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7275484</v>
+        <v>6947701</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23644,76 +23644,76 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F260" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G260" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K260">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L260">
         <v>3</v>
       </c>
       <c r="M260">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N260">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O260">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P260">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R260">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V260">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC260">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23911,10 +23911,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -24359,7 +24359,7 @@
         <v>54</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G269" t="s">
         <v>62</v>
@@ -24804,7 +24804,7 @@
         <v>49</v>
       </c>
       <c r="G273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24890,7 +24890,7 @@
         <v>45207.625</v>
       </c>
       <c r="F274" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G274" t="s">
         <v>58</v>
@@ -24982,7 +24982,7 @@
         <v>59</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H275">
         <v>3</v>
@@ -25160,7 +25160,7 @@
         <v>29</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -25602,7 +25602,7 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G282" t="s">
         <v>54</v>
@@ -25780,7 +25780,7 @@
         <v>45214.625</v>
       </c>
       <c r="F284" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
         <v>42</v>
@@ -25869,7 +25869,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G285" t="s">
         <v>62</v>
@@ -26403,7 +26403,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G291" t="s">
         <v>55</v>
@@ -26495,7 +26495,7 @@
         <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -26584,7 +26584,7 @@
         <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -26851,7 +26851,7 @@
         <v>57</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H296">
         <v>4</v>
@@ -27026,10 +27026,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F298" t="s">
+        <v>53</v>
+      </c>
+      <c r="G298" t="s">
         <v>52</v>
-      </c>
-      <c r="G298" t="s">
-        <v>51</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -27560,7 +27560,7 @@
         <v>45228.66666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G304" t="s">
         <v>43</v>
@@ -27993,7 +27993,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6949668</v>
+        <v>6947989</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28005,13 +28005,13 @@
         <v>45235.5</v>
       </c>
       <c r="F309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G309" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -28020,25 +28020,25 @@
         <v>63</v>
       </c>
       <c r="K309">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L309">
+        <v>3</v>
+      </c>
+      <c r="M309">
+        <v>3</v>
+      </c>
+      <c r="N309">
         <v>3.25</v>
       </c>
-      <c r="M309">
-        <v>1.8</v>
-      </c>
-      <c r="N309">
-        <v>4</v>
-      </c>
       <c r="O309">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P309">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q309">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
         <v>1.875</v>
@@ -28050,13 +28050,13 @@
         <v>2</v>
       </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28071,10 +28071,10 @@
         <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC309">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28082,7 +28082,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6947989</v>
+        <v>6949668</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28094,13 +28094,13 @@
         <v>45235.5</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G310" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28109,25 +28109,25 @@
         <v>63</v>
       </c>
       <c r="K310">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L310">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N310">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O310">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P310">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R310">
         <v>1.875</v>
@@ -28139,13 +28139,13 @@
         <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28160,10 +28160,10 @@
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28186,7 +28186,7 @@
         <v>60</v>
       </c>
       <c r="G311" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28361,10 +28361,10 @@
         <v>45235.625</v>
       </c>
       <c r="F313" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G313" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28542,7 +28542,7 @@
         <v>59</v>
       </c>
       <c r="G315" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H315">
         <v>3</v>
@@ -28717,7 +28717,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G317" t="s">
         <v>57</v>
@@ -28987,7 +28987,7 @@
         <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H320">
         <v>2</v>
@@ -29162,7 +29162,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G322" t="s">
         <v>42</v>
@@ -29518,7 +29518,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
         <v>50</v>
@@ -29607,7 +29607,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G327" t="s">
         <v>55</v>
@@ -29773,7 +29773,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6947726</v>
+        <v>6949676</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29785,10 +29785,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G329" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -29800,40 +29800,40 @@
         <v>64</v>
       </c>
       <c r="K329">
+        <v>3.4</v>
+      </c>
+      <c r="L329">
+        <v>3.25</v>
+      </c>
+      <c r="M329">
+        <v>2</v>
+      </c>
+      <c r="N329">
         <v>3</v>
       </c>
-      <c r="L329">
-        <v>2.875</v>
-      </c>
-      <c r="M329">
-        <v>2.4</v>
-      </c>
-      <c r="N329">
-        <v>3.1</v>
-      </c>
       <c r="O329">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q329">
         <v>0.25</v>
       </c>
       <c r="R329">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W329">
         <v>-1</v>
@@ -29842,13 +29842,13 @@
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="Z329">
         <v>-1</v>
       </c>
       <c r="AA329">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB329">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6949676</v>
+        <v>6947726</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29963,10 +29963,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G331" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -29978,40 +29978,40 @@
         <v>64</v>
       </c>
       <c r="K331">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L331">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M331">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N331">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P331">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q331">
         <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T331">
         <v>2</v>
       </c>
       <c r="U331">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -30020,13 +30020,13 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB331">
         <v>0</v>
@@ -30055,7 +30055,7 @@
         <v>60</v>
       </c>
       <c r="G332" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30497,7 +30497,7 @@
         <v>45255.625</v>
       </c>
       <c r="F337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G337" t="s">
         <v>57</v>
@@ -30675,7 +30675,7 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G339" t="s">
         <v>54</v>
@@ -30767,7 +30767,7 @@
         <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H340">
         <v>0</v>
@@ -30945,7 +30945,7 @@
         <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -31212,7 +31212,7 @@
         <v>56</v>
       </c>
       <c r="G345" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31479,7 +31479,7 @@
         <v>42</v>
       </c>
       <c r="G348" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31832,7 +31832,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F352" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G352" t="s">
         <v>50</v>
@@ -32010,7 +32010,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F354" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G354" t="s">
         <v>55</v>
@@ -32102,7 +32102,7 @@
         <v>44</v>
       </c>
       <c r="G355" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -32191,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32366,7 +32366,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F358" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G358" t="s">
         <v>49</v>
@@ -32722,7 +32722,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F362" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G362" t="s">
         <v>58</v>
@@ -32992,7 +32992,7 @@
         <v>59</v>
       </c>
       <c r="G365" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -33167,7 +33167,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F367" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G367" t="s">
         <v>61</v>
@@ -33434,10 +33434,10 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G370" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -33879,7 +33879,7 @@
         <v>45293.625</v>
       </c>
       <c r="F375" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G375" t="s">
         <v>29</v>
@@ -33968,7 +33968,7 @@
         <v>45294.625</v>
       </c>
       <c r="F376" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G376" t="s">
         <v>56</v>
@@ -34327,7 +34327,7 @@
         <v>58</v>
       </c>
       <c r="G380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -34594,7 +34594,7 @@
         <v>38</v>
       </c>
       <c r="G383" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H383">
         <v>2</v>
@@ -34950,7 +34950,7 @@
         <v>62</v>
       </c>
       <c r="G387" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H387">
         <v>1</v>
@@ -35036,7 +35036,7 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F388" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G388" t="s">
         <v>43</v>
@@ -35128,7 +35128,7 @@
         <v>44</v>
       </c>
       <c r="G389" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H389">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>45305.66666666666</v>
       </c>
       <c r="F394" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G394" t="s">
         <v>49</v>
@@ -35929,7 +35929,7 @@
         <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -36015,7 +36015,7 @@
         <v>45312.33333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G399" t="s">
         <v>57</v>
@@ -36107,7 +36107,7 @@
         <v>58</v>
       </c>
       <c r="G400" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H400">
         <v>2</v>
@@ -36285,7 +36285,7 @@
         <v>56</v>
       </c>
       <c r="G402" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -36641,7 +36641,7 @@
         <v>62</v>
       </c>
       <c r="G406" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H406">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>45318.625</v>
       </c>
       <c r="F409" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G409" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -37083,7 +37083,7 @@
         <v>45319.33333333334</v>
       </c>
       <c r="F411" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G411" t="s">
         <v>59</v>
@@ -37617,10 +37617,10 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F417" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G417" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H417">
         <v>0</v>
@@ -37887,7 +37887,7 @@
         <v>42</v>
       </c>
       <c r="G420" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H420">
         <v>1</v>
@@ -37973,7 +37973,7 @@
         <v>45326.5</v>
       </c>
       <c r="F421" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G421" t="s">
         <v>50</v>
@@ -38139,7 +38139,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6949706</v>
+        <v>6949527</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38151,76 +38151,76 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F423" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G423" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K423">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L423">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M423">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N423">
+        <v>2.8</v>
+      </c>
+      <c r="O423">
+        <v>2.8</v>
+      </c>
+      <c r="P423">
+        <v>2.5</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>2.05</v>
+      </c>
+      <c r="S423">
+        <v>1.75</v>
+      </c>
+      <c r="T423">
+        <v>2</v>
+      </c>
+      <c r="U423">
+        <v>1.95</v>
+      </c>
+      <c r="V423">
         <v>1.85</v>
       </c>
-      <c r="O423">
-        <v>3.1</v>
-      </c>
-      <c r="P423">
-        <v>4</v>
-      </c>
-      <c r="Q423">
-        <v>-0.5</v>
-      </c>
-      <c r="R423">
-        <v>1.9</v>
-      </c>
-      <c r="S423">
-        <v>1.9</v>
-      </c>
-      <c r="T423">
-        <v>2</v>
-      </c>
-      <c r="U423">
-        <v>1.975</v>
-      </c>
-      <c r="V423">
-        <v>1.825</v>
-      </c>
       <c r="W423">
+        <v>-1</v>
+      </c>
+      <c r="X423">
+        <v>-1</v>
+      </c>
+      <c r="Y423">
+        <v>1.5</v>
+      </c>
+      <c r="Z423">
+        <v>-1</v>
+      </c>
+      <c r="AA423">
+        <v>0.75</v>
+      </c>
+      <c r="AB423">
+        <v>-1</v>
+      </c>
+      <c r="AC423">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X423">
-        <v>-1</v>
-      </c>
-      <c r="Y423">
-        <v>-1</v>
-      </c>
-      <c r="Z423">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA423">
-        <v>-1</v>
-      </c>
-      <c r="AB423">
-        <v>-1</v>
-      </c>
-      <c r="AC423">
-        <v>0.825</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38228,7 +38228,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6949527</v>
+        <v>6949706</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38240,76 +38240,76 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F424" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G424" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K424">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L424">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M424">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N424">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O424">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P424">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q424">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R424">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S424">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T424">
         <v>2</v>
       </c>
       <c r="U424">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V424">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38421,7 +38421,7 @@
         <v>55</v>
       </c>
       <c r="G426" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -38510,7 +38510,7 @@
         <v>50</v>
       </c>
       <c r="G427" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H427">
         <v>2</v>
@@ -38955,7 +38955,7 @@
         <v>43</v>
       </c>
       <c r="G432" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H432">
         <v>1</v>
@@ -39130,7 +39130,7 @@
         <v>45333.625</v>
       </c>
       <c r="F434" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G434" t="s">
         <v>49</v>
@@ -39207,7 +39207,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6948005</v>
+        <v>6947793</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39216,49 +39216,49 @@
         <v>28</v>
       </c>
       <c r="E435" s="2">
-        <v>45339.5</v>
+        <v>45340.33333333334</v>
       </c>
       <c r="F435" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G435" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="K435">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L435">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M435">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N435">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O435">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P435">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q435">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R435">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S435">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T435">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U435">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V435">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W435">
         <v>0</v>
@@ -39281,7 +39281,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6947791</v>
+        <v>6947794</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39290,49 +39290,49 @@
         <v>28</v>
       </c>
       <c r="E436" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.5</v>
       </c>
       <c r="F436" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G436" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K436">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M436">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N436">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O436">
         <v>3</v>
       </c>
       <c r="P436">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q436">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R436">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S436">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T436">
         <v>2</v>
       </c>
       <c r="U436">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V436">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W436">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6949539</v>
+        <v>6949718</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39364,49 +39364,49 @@
         <v>28</v>
       </c>
       <c r="E437" s="2">
-        <v>45339.625</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F437" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G437" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K437">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L437">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M437">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N437">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O437">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P437">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q437">
         <v>-0.25</v>
       </c>
       <c r="R437">
+        <v>1.775</v>
+      </c>
+      <c r="S437">
+        <v>2.025</v>
+      </c>
+      <c r="T437">
+        <v>1.75</v>
+      </c>
+      <c r="U437">
+        <v>1.825</v>
+      </c>
+      <c r="V437">
         <v>1.975</v>
-      </c>
-      <c r="S437">
-        <v>1.825</v>
-      </c>
-      <c r="T437">
-        <v>2.25</v>
-      </c>
-      <c r="U437">
-        <v>1.975</v>
-      </c>
-      <c r="V437">
-        <v>1.825</v>
       </c>
       <c r="W437">
         <v>0</v>
@@ -39429,7 +39429,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6949541</v>
+        <v>6949720</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39438,49 +39438,49 @@
         <v>28</v>
       </c>
       <c r="E438" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F438" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G438" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K438">
+        <v>3.4</v>
+      </c>
+      <c r="L438">
+        <v>2.9</v>
+      </c>
+      <c r="M438">
+        <v>2.25</v>
+      </c>
+      <c r="N438">
+        <v>3.2</v>
+      </c>
+      <c r="O438">
         <v>2.75</v>
       </c>
-      <c r="L438">
-        <v>2.8</v>
-      </c>
-      <c r="M438">
-        <v>2.75</v>
-      </c>
-      <c r="N438">
-        <v>2.875</v>
-      </c>
-      <c r="O438">
-        <v>2.625</v>
-      </c>
       <c r="P438">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q438">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R438">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S438">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T438">
         <v>1.75</v>
       </c>
       <c r="U438">
+        <v>1.875</v>
+      </c>
+      <c r="V438">
         <v>1.925</v>
-      </c>
-      <c r="V438">
-        <v>1.875</v>
       </c>
       <c r="W438">
         <v>0</v>
@@ -39503,7 +39503,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6947793</v>
+        <v>6949716</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39512,49 +39512,49 @@
         <v>28</v>
       </c>
       <c r="E439" s="2">
-        <v>45340.33333333334</v>
+        <v>45340.625</v>
       </c>
       <c r="F439" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G439" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K439">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L439">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="M439">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N439">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="O439">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P439">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R439">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S439">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T439">
         <v>2.25</v>
       </c>
       <c r="U439">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V439">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W439">
         <v>0</v>
@@ -39577,7 +39577,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6947794</v>
+        <v>6947786</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39586,49 +39586,49 @@
         <v>28</v>
       </c>
       <c r="E440" s="2">
-        <v>45340.5</v>
+        <v>45340.625</v>
       </c>
       <c r="F440" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G440" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K440">
-        <v>2.15</v>
+        <v>1.675</v>
       </c>
       <c r="L440">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M440">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N440">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O440">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P440">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R440">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S440">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T440">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U440">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V440">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W440">
         <v>0</v>
@@ -39643,302 +39643,6 @@
         <v>0</v>
       </c>
       <c r="AA440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:29">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>6949718</v>
-      </c>
-      <c r="C441" t="s">
-        <v>28</v>
-      </c>
-      <c r="D441" t="s">
-        <v>28</v>
-      </c>
-      <c r="E441" s="2">
-        <v>45340.54166666666</v>
-      </c>
-      <c r="F441" t="s">
-        <v>42</v>
-      </c>
-      <c r="G441" t="s">
-        <v>55</v>
-      </c>
-      <c r="K441">
-        <v>2.2</v>
-      </c>
-      <c r="L441">
-        <v>2.9</v>
-      </c>
-      <c r="M441">
-        <v>3.5</v>
-      </c>
-      <c r="N441">
-        <v>2.05</v>
-      </c>
-      <c r="O441">
-        <v>3</v>
-      </c>
-      <c r="P441">
-        <v>3.8</v>
-      </c>
-      <c r="Q441">
-        <v>-0.25</v>
-      </c>
-      <c r="R441">
-        <v>1.75</v>
-      </c>
-      <c r="S441">
-        <v>2.05</v>
-      </c>
-      <c r="T441">
-        <v>1.75</v>
-      </c>
-      <c r="U441">
-        <v>1.85</v>
-      </c>
-      <c r="V441">
-        <v>1.95</v>
-      </c>
-      <c r="W441">
-        <v>0</v>
-      </c>
-      <c r="X441">
-        <v>0</v>
-      </c>
-      <c r="Y441">
-        <v>0</v>
-      </c>
-      <c r="Z441">
-        <v>0</v>
-      </c>
-      <c r="AA441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:29">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>6949720</v>
-      </c>
-      <c r="C442" t="s">
-        <v>28</v>
-      </c>
-      <c r="D442" t="s">
-        <v>28</v>
-      </c>
-      <c r="E442" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F442" t="s">
-        <v>56</v>
-      </c>
-      <c r="G442" t="s">
-        <v>50</v>
-      </c>
-      <c r="K442">
-        <v>3.4</v>
-      </c>
-      <c r="L442">
-        <v>2.9</v>
-      </c>
-      <c r="M442">
-        <v>2.25</v>
-      </c>
-      <c r="N442">
-        <v>3.1</v>
-      </c>
-      <c r="O442">
-        <v>2.75</v>
-      </c>
-      <c r="P442">
-        <v>2.5</v>
-      </c>
-      <c r="Q442">
-        <v>0</v>
-      </c>
-      <c r="R442">
-        <v>2.075</v>
-      </c>
-      <c r="S442">
-        <v>1.725</v>
-      </c>
-      <c r="T442">
-        <v>1.75</v>
-      </c>
-      <c r="U442">
-        <v>1.85</v>
-      </c>
-      <c r="V442">
-        <v>1.95</v>
-      </c>
-      <c r="W442">
-        <v>0</v>
-      </c>
-      <c r="X442">
-        <v>0</v>
-      </c>
-      <c r="Y442">
-        <v>0</v>
-      </c>
-      <c r="Z442">
-        <v>0</v>
-      </c>
-      <c r="AA442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:29">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>6947786</v>
-      </c>
-      <c r="C443" t="s">
-        <v>28</v>
-      </c>
-      <c r="D443" t="s">
-        <v>28</v>
-      </c>
-      <c r="E443" s="2">
-        <v>45340.625</v>
-      </c>
-      <c r="F443" t="s">
-        <v>58</v>
-      </c>
-      <c r="G443" t="s">
-        <v>43</v>
-      </c>
-      <c r="K443">
-        <v>1.675</v>
-      </c>
-      <c r="L443">
-        <v>3.5</v>
-      </c>
-      <c r="M443">
-        <v>5</v>
-      </c>
-      <c r="N443">
-        <v>1.571</v>
-      </c>
-      <c r="O443">
-        <v>3.6</v>
-      </c>
-      <c r="P443">
-        <v>5.75</v>
-      </c>
-      <c r="Q443">
-        <v>-1</v>
-      </c>
-      <c r="R443">
-        <v>2.025</v>
-      </c>
-      <c r="S443">
-        <v>1.775</v>
-      </c>
-      <c r="T443">
-        <v>2.25</v>
-      </c>
-      <c r="U443">
-        <v>1.925</v>
-      </c>
-      <c r="V443">
-        <v>1.875</v>
-      </c>
-      <c r="W443">
-        <v>0</v>
-      </c>
-      <c r="X443">
-        <v>0</v>
-      </c>
-      <c r="Y443">
-        <v>0</v>
-      </c>
-      <c r="Z443">
-        <v>0</v>
-      </c>
-      <c r="AA443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:29">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>6949716</v>
-      </c>
-      <c r="C444" t="s">
-        <v>28</v>
-      </c>
-      <c r="D444" t="s">
-        <v>28</v>
-      </c>
-      <c r="E444" s="2">
-        <v>45340.625</v>
-      </c>
-      <c r="F444" t="s">
-        <v>38</v>
-      </c>
-      <c r="G444" t="s">
-        <v>62</v>
-      </c>
-      <c r="K444">
-        <v>1.3</v>
-      </c>
-      <c r="L444">
-        <v>4.8</v>
-      </c>
-      <c r="M444">
-        <v>9</v>
-      </c>
-      <c r="N444">
-        <v>1.3</v>
-      </c>
-      <c r="O444">
-        <v>4.5</v>
-      </c>
-      <c r="P444">
-        <v>8</v>
-      </c>
-      <c r="Q444">
-        <v>-1.25</v>
-      </c>
-      <c r="R444">
-        <v>1.775</v>
-      </c>
-      <c r="S444">
-        <v>2.025</v>
-      </c>
-      <c r="T444">
-        <v>2.25</v>
-      </c>
-      <c r="U444">
-        <v>1.825</v>
-      </c>
-      <c r="V444">
-        <v>1.975</v>
-      </c>
-      <c r="W444">
-        <v>0</v>
-      </c>
-      <c r="X444">
-        <v>0</v>
-      </c>
-      <c r="Y444">
-        <v>0</v>
-      </c>
-      <c r="Z444">
-        <v>0</v>
-      </c>
-      <c r="AA444">
         <v>0</v>
       </c>
     </row>
